--- a/20 開発資料/02.画面、帳票設計/画面レイアウト(10_会場手配).xlsx
+++ b/20 開発資料/02.画面、帳票設計/画面レイアウト(10_会場手配).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="385">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -1033,9 +1033,6 @@
   </si>
   <si>
     <t>再計算</t>
-  </si>
-  <si>
-    <t>見積書保存場所</t>
   </si>
   <si>
     <t>I</t>
@@ -1457,26 +1454,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ステータスを変更して登録 または</t>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NOZOMIへの送信対象とすると、</t>
-    <rPh sb="8" eb="10">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>会場手配履歴一覧</t>
     <rPh sb="0" eb="2">
       <t>カイジョウ</t>
@@ -1920,6 +1897,28 @@
   </si>
   <si>
     <t>YYYY/MM/DD HH:MM:SS</t>
+  </si>
+  <si>
+    <t>見積書保存場所URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OFF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータスを変更して登録すると、</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -4550,7 +4549,7 @@
       <c r="Q9" s="106"/>
       <c r="R9" s="105"/>
       <c r="S9" s="104" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="T9" s="105"/>
       <c r="U9" s="104" t="s">
@@ -4829,7 +4828,7 @@
       </c>
       <c r="AL12" s="75"/>
       <c r="AM12" s="67" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AN12" s="68"/>
       <c r="AO12" s="68"/>
@@ -6622,7 +6621,7 @@
   <dimension ref="A1:AZ248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+      <selection activeCell="AK12" sqref="AK12:AM24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6959,7 +6958,7 @@
     <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -6996,7 +6995,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
@@ -7052,7 +7051,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="5" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
@@ -7108,7 +7107,7 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="54" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
@@ -7158,9 +7157,6 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="4"/>
-      <c r="AK13" s="54" t="s">
-        <v>287</v>
-      </c>
       <c r="AQ13" s="5"/>
       <c r="AR13" s="5"/>
       <c r="AS13" s="5"/>
@@ -7305,6 +7301,11 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="4"/>
+      <c r="AK16" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
@@ -7356,8 +7357,9 @@
       <c r="AK17" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
+      <c r="AL17" s="5" t="s">
+        <v>378</v>
+      </c>
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
@@ -7410,10 +7412,10 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AL18" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
@@ -7466,11 +7468,11 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="4"/>
-      <c r="AK19" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>382</v>
+      <c r="AK19" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="AL19" s="54" t="s">
+        <v>290</v>
       </c>
       <c r="AN19" s="5"/>
       <c r="AO19" s="5"/>
@@ -7523,12 +7525,9 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="6"/>
       <c r="AJ20" s="4"/>
-      <c r="AK20" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="AL20" s="54" t="s">
-        <v>293</v>
-      </c>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5"/>
@@ -8570,7 +8569,7 @@
     <row r="40" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -10192,7 +10191,7 @@
     <row r="70" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -11814,7 +11813,7 @@
     <row r="100" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
       <c r="B100" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -13436,7 +13435,7 @@
     <row r="130" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
       <c r="B130" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -15058,7 +15057,7 @@
     <row r="160" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
       <c r="B160" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -16680,7 +16679,7 @@
     <row r="190" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
       <c r="B190" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -18302,7 +18301,7 @@
     <row r="220" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
       <c r="B220" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
@@ -19907,8 +19906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ142"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+    <sheetView topLeftCell="A93" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AV108" sqref="AV108:AW108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20215,7 +20214,7 @@
       <c r="Q9" s="106"/>
       <c r="R9" s="105"/>
       <c r="S9" s="104" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="T9" s="105"/>
       <c r="U9" s="104" t="s">
@@ -20458,7 +20457,7 @@
       </c>
       <c r="AF12" s="75"/>
       <c r="AG12" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH12" s="75"/>
       <c r="AI12" s="70">
@@ -20618,7 +20617,7 @@
       </c>
       <c r="AF14" s="75"/>
       <c r="AG14" s="70" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH14" s="75"/>
       <c r="AI14" s="70">
@@ -20630,7 +20629,7 @@
       </c>
       <c r="AL14" s="75"/>
       <c r="AM14" s="67" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AN14" s="68"/>
       <c r="AO14" s="68"/>
@@ -20778,7 +20777,7 @@
       </c>
       <c r="AF16" s="75"/>
       <c r="AG16" s="70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AH16" s="75"/>
       <c r="AI16" s="70">
@@ -20938,7 +20937,7 @@
       </c>
       <c r="AF18" s="75"/>
       <c r="AG18" s="70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AH18" s="75"/>
       <c r="AI18" s="70">
@@ -21179,7 +21178,7 @@
       </c>
       <c r="AF21" s="75"/>
       <c r="AG21" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH21" s="75"/>
       <c r="AI21" s="70">
@@ -21793,7 +21792,7 @@
       </c>
       <c r="AF29" s="75"/>
       <c r="AG29" s="70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH29" s="75"/>
       <c r="AI29" s="70">
@@ -22184,7 +22183,7 @@
       </c>
       <c r="AF34" s="75"/>
       <c r="AG34" s="70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH34" s="75"/>
       <c r="AI34" s="70">
@@ -22263,7 +22262,7 @@
       </c>
       <c r="AF35" s="75"/>
       <c r="AG35" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH35" s="75"/>
       <c r="AI35" s="70">
@@ -22342,7 +22341,7 @@
       </c>
       <c r="AF36" s="75"/>
       <c r="AG36" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH36" s="75"/>
       <c r="AI36" s="70">
@@ -22421,7 +22420,7 @@
       </c>
       <c r="AF37" s="75"/>
       <c r="AG37" s="70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH37" s="75"/>
       <c r="AI37" s="70">
@@ -22559,7 +22558,7 @@
       </c>
       <c r="AF39" s="75"/>
       <c r="AG39" s="70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH39" s="75"/>
       <c r="AI39" s="70">
@@ -22950,7 +22949,7 @@
       </c>
       <c r="AF44" s="75"/>
       <c r="AG44" s="70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH44" s="75"/>
       <c r="AI44" s="70">
@@ -23029,7 +23028,7 @@
       </c>
       <c r="AF45" s="75"/>
       <c r="AG45" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH45" s="75"/>
       <c r="AI45" s="70">
@@ -23108,7 +23107,7 @@
       </c>
       <c r="AF46" s="75"/>
       <c r="AG46" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH46" s="75"/>
       <c r="AI46" s="70">
@@ -23187,7 +23186,7 @@
       </c>
       <c r="AF47" s="75"/>
       <c r="AG47" s="70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH47" s="75"/>
       <c r="AI47" s="70">
@@ -23282,7 +23281,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C49" s="56"/>
       <c r="D49" s="56"/>
@@ -23307,7 +23306,7 @@
       </c>
       <c r="T49" s="75"/>
       <c r="U49" s="136" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="V49" s="137"/>
       <c r="W49" s="137"/>
@@ -23361,7 +23360,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
@@ -23386,7 +23385,7 @@
       </c>
       <c r="T50" s="75"/>
       <c r="U50" s="136" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="V50" s="137"/>
       <c r="W50" s="137"/>
@@ -23440,7 +23439,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C51" s="56"/>
       <c r="D51" s="56"/>
@@ -23465,7 +23464,7 @@
       </c>
       <c r="T51" s="75"/>
       <c r="U51" s="136" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="V51" s="137"/>
       <c r="W51" s="137"/>
@@ -23495,7 +23494,7 @@
       </c>
       <c r="AL51" s="75"/>
       <c r="AM51" s="67" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AN51" s="68"/>
       <c r="AO51" s="68"/>
@@ -23564,7 +23563,7 @@
       </c>
       <c r="AF52" s="75"/>
       <c r="AG52" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH52" s="75"/>
       <c r="AI52" s="70">
@@ -23643,7 +23642,7 @@
       </c>
       <c r="AF53" s="75"/>
       <c r="AG53" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH53" s="75"/>
       <c r="AI53" s="70">
@@ -23718,7 +23717,7 @@
       </c>
       <c r="AF54" s="75"/>
       <c r="AG54" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH54" s="75"/>
       <c r="AI54" s="70">
@@ -23754,7 +23753,7 @@
         <v>46</v>
       </c>
       <c r="B55" s="55" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C55" s="56"/>
       <c r="D55" s="56"/>
@@ -23779,7 +23778,7 @@
       </c>
       <c r="T55" s="75"/>
       <c r="U55" s="136" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="V55" s="137"/>
       <c r="W55" s="137"/>
@@ -23797,7 +23796,7 @@
       </c>
       <c r="AF55" s="75"/>
       <c r="AG55" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH55" s="75"/>
       <c r="AI55" s="70">
@@ -23833,7 +23832,7 @@
         <v>47</v>
       </c>
       <c r="B56" s="55" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C56" s="56"/>
       <c r="D56" s="56"/>
@@ -23858,7 +23857,7 @@
       </c>
       <c r="T56" s="75"/>
       <c r="U56" s="136" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="V56" s="137"/>
       <c r="W56" s="137"/>
@@ -23876,7 +23875,7 @@
       </c>
       <c r="AF56" s="75"/>
       <c r="AG56" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH56" s="75"/>
       <c r="AI56" s="70">
@@ -24014,7 +24013,7 @@
       </c>
       <c r="AF58" s="75"/>
       <c r="AG58" s="70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AH58" s="75"/>
       <c r="AI58" s="70">
@@ -24093,7 +24092,7 @@
       </c>
       <c r="AF59" s="75"/>
       <c r="AG59" s="70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AH59" s="75"/>
       <c r="AI59" s="70">
@@ -24144,7 +24143,7 @@
       <c r="M60" s="46"/>
       <c r="N60" s="47"/>
       <c r="O60" s="136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P60" s="137"/>
       <c r="Q60" s="137"/>
@@ -24172,7 +24171,7 @@
       </c>
       <c r="AF60" s="75"/>
       <c r="AG60" s="70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AH60" s="75"/>
       <c r="AI60" s="70">
@@ -24253,7 +24252,7 @@
       </c>
       <c r="AF61" s="75"/>
       <c r="AG61" s="70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH61" s="75"/>
       <c r="AI61" s="70">
@@ -24332,7 +24331,7 @@
       </c>
       <c r="AF62" s="75"/>
       <c r="AG62" s="70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH62" s="75"/>
       <c r="AI62" s="70">
@@ -24411,7 +24410,7 @@
       </c>
       <c r="AF63" s="75"/>
       <c r="AG63" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH63" s="75"/>
       <c r="AI63" s="70">
@@ -24423,7 +24422,7 @@
       </c>
       <c r="AL63" s="75"/>
       <c r="AM63" s="139" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AN63" s="140"/>
       <c r="AO63" s="140"/>
@@ -24449,7 +24448,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C64" s="46"/>
       <c r="D64" s="46"/>
@@ -24492,7 +24491,7 @@
       </c>
       <c r="AF64" s="75"/>
       <c r="AG64" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH64" s="75"/>
       <c r="AI64" s="70">
@@ -24504,7 +24503,7 @@
       </c>
       <c r="AL64" s="75"/>
       <c r="AM64" s="139" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AN64" s="140"/>
       <c r="AO64" s="140"/>
@@ -24530,7 +24529,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C65" s="46"/>
       <c r="D65" s="46"/>
@@ -24585,7 +24584,7 @@
       </c>
       <c r="AL65" s="75"/>
       <c r="AM65" s="139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AN65" s="140"/>
       <c r="AO65" s="140"/>
@@ -24611,7 +24610,7 @@
         <v>57</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C66" s="46"/>
       <c r="D66" s="46"/>
@@ -24666,7 +24665,7 @@
       </c>
       <c r="AL66" s="75"/>
       <c r="AM66" s="139" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AN66" s="140"/>
       <c r="AO66" s="140"/>
@@ -24692,7 +24691,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C67" s="46"/>
       <c r="D67" s="46"/>
@@ -24735,7 +24734,7 @@
       </c>
       <c r="AF67" s="75"/>
       <c r="AG67" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH67" s="75"/>
       <c r="AI67" s="70">
@@ -24747,7 +24746,7 @@
       </c>
       <c r="AL67" s="75"/>
       <c r="AM67" s="139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AN67" s="140"/>
       <c r="AO67" s="140"/>
@@ -24773,7 +24772,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C68" s="46"/>
       <c r="D68" s="46"/>
@@ -24798,7 +24797,7 @@
       </c>
       <c r="T68" s="75"/>
       <c r="U68" s="136" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="V68" s="137"/>
       <c r="W68" s="137"/>
@@ -24852,7 +24851,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C69" s="46"/>
       <c r="D69" s="46"/>
@@ -24895,7 +24894,7 @@
       </c>
       <c r="AF69" s="75"/>
       <c r="AG69" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH69" s="75"/>
       <c r="AI69" s="70">
@@ -24907,7 +24906,7 @@
       </c>
       <c r="AL69" s="75"/>
       <c r="AM69" s="139" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AN69" s="140"/>
       <c r="AO69" s="140"/>
@@ -24933,7 +24932,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C70" s="46"/>
       <c r="D70" s="46"/>
@@ -24988,7 +24987,7 @@
       </c>
       <c r="AL70" s="75"/>
       <c r="AM70" s="139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AN70" s="140"/>
       <c r="AO70" s="140"/>
@@ -25014,7 +25013,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="55" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C71" s="56"/>
       <c r="D71" s="56"/>
@@ -25039,7 +25038,7 @@
       </c>
       <c r="T71" s="75"/>
       <c r="U71" s="136" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="V71" s="137"/>
       <c r="W71" s="137"/>
@@ -25057,7 +25056,7 @@
       </c>
       <c r="AF71" s="75"/>
       <c r="AG71" s="70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH71" s="75"/>
       <c r="AI71" s="70">
@@ -25093,7 +25092,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="55" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C72" s="56"/>
       <c r="D72" s="56"/>
@@ -25118,7 +25117,7 @@
       </c>
       <c r="T72" s="75"/>
       <c r="U72" s="136" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="V72" s="137"/>
       <c r="W72" s="137"/>
@@ -25172,7 +25171,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="55" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C73" s="56"/>
       <c r="D73" s="56"/>
@@ -25197,7 +25196,7 @@
       </c>
       <c r="T73" s="75"/>
       <c r="U73" s="136" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="V73" s="137"/>
       <c r="W73" s="137"/>
@@ -25227,7 +25226,7 @@
       </c>
       <c r="AL73" s="75"/>
       <c r="AM73" s="139" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AN73" s="140"/>
       <c r="AO73" s="140"/>
@@ -25253,7 +25252,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C74" s="56"/>
       <c r="D74" s="56"/>
@@ -25278,7 +25277,7 @@
       </c>
       <c r="T74" s="75"/>
       <c r="U74" s="136" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="V74" s="137"/>
       <c r="W74" s="137"/>
@@ -25296,7 +25295,7 @@
       </c>
       <c r="AF74" s="75"/>
       <c r="AG74" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH74" s="75"/>
       <c r="AI74" s="70">
@@ -25308,7 +25307,7 @@
       </c>
       <c r="AL74" s="75"/>
       <c r="AM74" s="139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AN74" s="140"/>
       <c r="AO74" s="140"/>
@@ -25334,7 +25333,7 @@
         <v>66</v>
       </c>
       <c r="B75" s="55" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C75" s="56"/>
       <c r="D75" s="56"/>
@@ -25359,7 +25358,7 @@
       </c>
       <c r="T75" s="75"/>
       <c r="U75" s="136" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="V75" s="137"/>
       <c r="W75" s="137"/>
@@ -25413,7 +25412,7 @@
         <v>67</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C76" s="46"/>
       <c r="D76" s="46"/>
@@ -25468,7 +25467,7 @@
       </c>
       <c r="AL76" s="75"/>
       <c r="AM76" s="139" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AN76" s="140"/>
       <c r="AO76" s="140"/>
@@ -25494,7 +25493,7 @@
         <v>68</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C77" s="46"/>
       <c r="D77" s="46"/>
@@ -25537,7 +25536,7 @@
       </c>
       <c r="AF77" s="75"/>
       <c r="AG77" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH77" s="75"/>
       <c r="AI77" s="70">
@@ -25549,7 +25548,7 @@
       </c>
       <c r="AL77" s="75"/>
       <c r="AM77" s="139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AN77" s="140"/>
       <c r="AO77" s="140"/>
@@ -25575,7 +25574,7 @@
         <v>69</v>
       </c>
       <c r="B78" s="55" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C78" s="56"/>
       <c r="D78" s="56"/>
@@ -25600,7 +25599,7 @@
       </c>
       <c r="T78" s="75"/>
       <c r="U78" s="136" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="V78" s="137"/>
       <c r="W78" s="137"/>
@@ -25618,7 +25617,7 @@
       </c>
       <c r="AF78" s="75"/>
       <c r="AG78" s="70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH78" s="75"/>
       <c r="AI78" s="70">
@@ -25654,7 +25653,7 @@
         <v>70</v>
       </c>
       <c r="B79" s="55" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C79" s="56"/>
       <c r="D79" s="56"/>
@@ -25679,7 +25678,7 @@
       </c>
       <c r="T79" s="75"/>
       <c r="U79" s="136" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="V79" s="137"/>
       <c r="W79" s="137"/>
@@ -25733,7 +25732,7 @@
         <v>71</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C80" s="56"/>
       <c r="D80" s="56"/>
@@ -25792,7 +25791,7 @@
         <v>72</v>
       </c>
       <c r="B81" s="55" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C81" s="56"/>
       <c r="D81" s="56"/>
@@ -25817,7 +25816,7 @@
       </c>
       <c r="T81" s="75"/>
       <c r="U81" s="136" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="V81" s="137"/>
       <c r="W81" s="137"/>
@@ -25871,7 +25870,7 @@
         <v>73</v>
       </c>
       <c r="B82" s="55" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C82" s="56"/>
       <c r="D82" s="56"/>
@@ -25896,7 +25895,7 @@
       </c>
       <c r="T82" s="75"/>
       <c r="U82" s="136" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="V82" s="142"/>
       <c r="W82" s="142"/>
@@ -25914,7 +25913,7 @@
       </c>
       <c r="AF82" s="75"/>
       <c r="AG82" s="70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AH82" s="75"/>
       <c r="AI82" s="70">
@@ -25952,7 +25951,7 @@
         <v>74</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C83" s="56"/>
       <c r="D83" s="56"/>
@@ -25977,7 +25976,7 @@
       </c>
       <c r="T83" s="75"/>
       <c r="U83" s="136" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="V83" s="137"/>
       <c r="W83" s="137"/>
@@ -26031,7 +26030,7 @@
         <v>75</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C84" s="56"/>
       <c r="D84" s="56"/>
@@ -26056,7 +26055,7 @@
       </c>
       <c r="T84" s="75"/>
       <c r="U84" s="136" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="V84" s="137"/>
       <c r="W84" s="137"/>
@@ -26169,7 +26168,7 @@
         <v>77</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C86" s="49"/>
       <c r="D86" s="49"/>
@@ -26184,7 +26183,7 @@
       <c r="M86" s="49"/>
       <c r="N86" s="50"/>
       <c r="O86" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P86" s="137"/>
       <c r="Q86" s="137"/>
@@ -26194,7 +26193,7 @@
       </c>
       <c r="T86" s="75"/>
       <c r="U86" s="136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V86" s="137"/>
       <c r="W86" s="137"/>
@@ -26212,7 +26211,7 @@
       </c>
       <c r="AF86" s="75"/>
       <c r="AG86" s="70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH86" s="75"/>
       <c r="AI86" s="70">
@@ -26235,7 +26234,7 @@
       </c>
       <c r="AU86" s="75"/>
       <c r="AV86" s="70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW86" s="75"/>
       <c r="AX86" s="72"/>
@@ -26263,13 +26262,13 @@
       <c r="M87" s="46"/>
       <c r="N87" s="47"/>
       <c r="O87" s="136" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P87" s="137"/>
       <c r="Q87" s="137"/>
       <c r="R87" s="138"/>
       <c r="S87" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T87" s="75"/>
       <c r="U87" s="147" t="s">
@@ -26342,13 +26341,13 @@
       <c r="M88" s="46"/>
       <c r="N88" s="47"/>
       <c r="O88" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P88" s="137"/>
       <c r="Q88" s="137"/>
       <c r="R88" s="138"/>
       <c r="S88" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T88" s="75"/>
       <c r="U88" s="147" t="s">
@@ -26393,7 +26392,7 @@
       </c>
       <c r="AU88" s="75"/>
       <c r="AV88" s="70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AW88" s="71"/>
       <c r="AX88" s="72"/>
@@ -26421,17 +26420,17 @@
       <c r="M89" s="46"/>
       <c r="N89" s="47"/>
       <c r="O89" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P89" s="137"/>
       <c r="Q89" s="137"/>
       <c r="R89" s="138"/>
       <c r="S89" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T89" s="75"/>
       <c r="U89" s="144" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V89" s="145"/>
       <c r="W89" s="145"/>
@@ -26449,7 +26448,7 @@
       </c>
       <c r="AF89" s="75"/>
       <c r="AG89" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH89" s="75"/>
       <c r="AI89" s="70">
@@ -26472,7 +26471,7 @@
       </c>
       <c r="AU89" s="75"/>
       <c r="AV89" s="70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AW89" s="71"/>
       <c r="AX89" s="72"/>
@@ -26500,13 +26499,13 @@
       <c r="M90" s="46"/>
       <c r="N90" s="47"/>
       <c r="O90" s="136" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P90" s="137"/>
       <c r="Q90" s="137"/>
       <c r="R90" s="138"/>
       <c r="S90" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T90" s="75"/>
       <c r="U90" s="147" t="s">
@@ -26540,7 +26539,7 @@
       </c>
       <c r="AL90" s="75"/>
       <c r="AM90" s="136" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN90" s="137"/>
       <c r="AO90" s="137"/>
@@ -26566,7 +26565,7 @@
         <v>82</v>
       </c>
       <c r="B91" s="48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C91" s="49"/>
       <c r="D91" s="49"/>
@@ -26581,17 +26580,17 @@
       <c r="M91" s="49"/>
       <c r="N91" s="50"/>
       <c r="O91" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P91" s="137"/>
       <c r="Q91" s="137"/>
       <c r="R91" s="138"/>
       <c r="S91" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T91" s="75"/>
       <c r="U91" s="136" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V91" s="137"/>
       <c r="W91" s="137"/>
@@ -26609,7 +26608,7 @@
       </c>
       <c r="AF91" s="75"/>
       <c r="AG91" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH91" s="75"/>
       <c r="AI91" s="70">
@@ -26632,7 +26631,7 @@
       </c>
       <c r="AU91" s="75"/>
       <c r="AV91" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW91" s="71"/>
       <c r="AX91" s="72"/>
@@ -26660,17 +26659,17 @@
       <c r="M92" s="46"/>
       <c r="N92" s="47"/>
       <c r="O92" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P92" s="137"/>
       <c r="Q92" s="137"/>
       <c r="R92" s="138"/>
       <c r="S92" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T92" s="75"/>
       <c r="U92" s="136" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V92" s="137"/>
       <c r="W92" s="137"/>
@@ -26688,7 +26687,7 @@
       </c>
       <c r="AF92" s="75"/>
       <c r="AG92" s="70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AH92" s="75"/>
       <c r="AI92" s="70">
@@ -26700,7 +26699,7 @@
       </c>
       <c r="AL92" s="75"/>
       <c r="AM92" s="67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AN92" s="68"/>
       <c r="AO92" s="68"/>
@@ -26741,17 +26740,17 @@
       <c r="M93" s="46"/>
       <c r="N93" s="47"/>
       <c r="O93" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P93" s="137"/>
       <c r="Q93" s="137"/>
       <c r="R93" s="138"/>
       <c r="S93" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T93" s="75"/>
       <c r="U93" s="136" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V93" s="137"/>
       <c r="W93" s="137"/>
@@ -26769,7 +26768,7 @@
       </c>
       <c r="AF93" s="75"/>
       <c r="AG93" s="70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AH93" s="75"/>
       <c r="AI93" s="70">
@@ -26781,7 +26780,7 @@
       </c>
       <c r="AL93" s="75"/>
       <c r="AM93" s="67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AN93" s="68"/>
       <c r="AO93" s="68"/>
@@ -26822,17 +26821,17 @@
       <c r="M94" s="46"/>
       <c r="N94" s="47"/>
       <c r="O94" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P94" s="137"/>
       <c r="Q94" s="137"/>
       <c r="R94" s="138"/>
       <c r="S94" s="70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T94" s="75"/>
       <c r="U94" s="136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V94" s="137"/>
       <c r="W94" s="137"/>
@@ -26850,7 +26849,7 @@
       </c>
       <c r="AF94" s="75"/>
       <c r="AG94" s="70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AH94" s="75"/>
       <c r="AI94" s="70">
@@ -26862,7 +26861,7 @@
       </c>
       <c r="AL94" s="75"/>
       <c r="AM94" s="67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AN94" s="68"/>
       <c r="AO94" s="68"/>
@@ -26909,11 +26908,11 @@
       <c r="Q95" s="137"/>
       <c r="R95" s="138"/>
       <c r="S95" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T95" s="75"/>
       <c r="U95" s="144" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V95" s="145"/>
       <c r="W95" s="145"/>
@@ -26931,7 +26930,7 @@
       </c>
       <c r="AF95" s="75"/>
       <c r="AG95" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH95" s="75"/>
       <c r="AI95" s="70">
@@ -26954,7 +26953,7 @@
       </c>
       <c r="AU95" s="75"/>
       <c r="AV95" s="70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AW95" s="71"/>
       <c r="AX95" s="72"/>
@@ -26967,7 +26966,7 @@
         <v>87</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C96" s="52"/>
       <c r="D96" s="52"/>
@@ -26988,11 +26987,11 @@
       <c r="Q96" s="137"/>
       <c r="R96" s="138"/>
       <c r="S96" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T96" s="75"/>
       <c r="U96" s="144" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V96" s="145"/>
       <c r="W96" s="145"/>
@@ -27010,7 +27009,7 @@
       </c>
       <c r="AF96" s="75"/>
       <c r="AG96" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH96" s="75"/>
       <c r="AI96" s="70">
@@ -27033,7 +27032,7 @@
       </c>
       <c r="AU96" s="75"/>
       <c r="AV96" s="70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AW96" s="71"/>
       <c r="AX96" s="72"/>
@@ -27046,7 +27045,7 @@
         <v>88</v>
       </c>
       <c r="B97" s="51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C97" s="52"/>
       <c r="D97" s="52"/>
@@ -27067,11 +27066,11 @@
       <c r="Q97" s="137"/>
       <c r="R97" s="138"/>
       <c r="S97" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T97" s="75"/>
       <c r="U97" s="144" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V97" s="145"/>
       <c r="W97" s="145"/>
@@ -27089,7 +27088,7 @@
       </c>
       <c r="AF97" s="75"/>
       <c r="AG97" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH97" s="75"/>
       <c r="AI97" s="70">
@@ -27112,7 +27111,7 @@
       </c>
       <c r="AU97" s="75"/>
       <c r="AV97" s="70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AW97" s="71"/>
       <c r="AX97" s="72"/>
@@ -27125,7 +27124,7 @@
         <v>89</v>
       </c>
       <c r="B98" s="51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C98" s="52"/>
       <c r="D98" s="52"/>
@@ -27146,11 +27145,11 @@
       <c r="Q98" s="137"/>
       <c r="R98" s="138"/>
       <c r="S98" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T98" s="75"/>
       <c r="U98" s="144" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V98" s="145"/>
       <c r="W98" s="145"/>
@@ -27168,7 +27167,7 @@
       </c>
       <c r="AF98" s="75"/>
       <c r="AG98" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH98" s="75"/>
       <c r="AI98" s="70">
@@ -27191,7 +27190,7 @@
       </c>
       <c r="AU98" s="75"/>
       <c r="AV98" s="70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AW98" s="71"/>
       <c r="AX98" s="72"/>
@@ -27204,7 +27203,7 @@
         <v>90</v>
       </c>
       <c r="B99" s="51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C99" s="52"/>
       <c r="D99" s="52"/>
@@ -27225,11 +27224,11 @@
       <c r="Q99" s="137"/>
       <c r="R99" s="138"/>
       <c r="S99" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T99" s="75"/>
       <c r="U99" s="144" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V99" s="145"/>
       <c r="W99" s="145"/>
@@ -27247,7 +27246,7 @@
       </c>
       <c r="AF99" s="75"/>
       <c r="AG99" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH99" s="75"/>
       <c r="AI99" s="70">
@@ -27270,7 +27269,7 @@
       </c>
       <c r="AU99" s="75"/>
       <c r="AV99" s="70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AW99" s="71"/>
       <c r="AX99" s="72"/>
@@ -27283,7 +27282,7 @@
         <v>91</v>
       </c>
       <c r="B100" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C100" s="52"/>
       <c r="D100" s="52"/>
@@ -27304,11 +27303,11 @@
       <c r="Q100" s="137"/>
       <c r="R100" s="138"/>
       <c r="S100" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T100" s="75"/>
       <c r="U100" s="144" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V100" s="145"/>
       <c r="W100" s="145"/>
@@ -27326,7 +27325,7 @@
       </c>
       <c r="AF100" s="75"/>
       <c r="AG100" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH100" s="75"/>
       <c r="AI100" s="70">
@@ -27349,7 +27348,7 @@
       </c>
       <c r="AU100" s="75"/>
       <c r="AV100" s="70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AW100" s="71"/>
       <c r="AX100" s="72"/>
@@ -27362,7 +27361,7 @@
         <v>92</v>
       </c>
       <c r="B101" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C101" s="52"/>
       <c r="D101" s="52"/>
@@ -27383,11 +27382,11 @@
       <c r="Q101" s="137"/>
       <c r="R101" s="138"/>
       <c r="S101" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T101" s="75"/>
       <c r="U101" s="144" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V101" s="145"/>
       <c r="W101" s="145"/>
@@ -27405,7 +27404,7 @@
       </c>
       <c r="AF101" s="75"/>
       <c r="AG101" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH101" s="75"/>
       <c r="AI101" s="70">
@@ -27428,7 +27427,7 @@
       </c>
       <c r="AU101" s="75"/>
       <c r="AV101" s="70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AW101" s="71"/>
       <c r="AX101" s="72"/>
@@ -27441,7 +27440,7 @@
         <v>93</v>
       </c>
       <c r="B102" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C102" s="52"/>
       <c r="D102" s="52"/>
@@ -27462,11 +27461,11 @@
       <c r="Q102" s="137"/>
       <c r="R102" s="138"/>
       <c r="S102" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T102" s="75"/>
       <c r="U102" s="144" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V102" s="145"/>
       <c r="W102" s="145"/>
@@ -27484,7 +27483,7 @@
       </c>
       <c r="AF102" s="75"/>
       <c r="AG102" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH102" s="75"/>
       <c r="AI102" s="70">
@@ -27507,7 +27506,7 @@
       </c>
       <c r="AU102" s="75"/>
       <c r="AV102" s="70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AW102" s="71"/>
       <c r="AX102" s="72"/>
@@ -27520,7 +27519,7 @@
         <v>94</v>
       </c>
       <c r="B103" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C103" s="52"/>
       <c r="D103" s="52"/>
@@ -27541,11 +27540,11 @@
       <c r="Q103" s="137"/>
       <c r="R103" s="138"/>
       <c r="S103" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T103" s="75"/>
       <c r="U103" s="144" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V103" s="145"/>
       <c r="W103" s="145"/>
@@ -27563,7 +27562,7 @@
       </c>
       <c r="AF103" s="75"/>
       <c r="AG103" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH103" s="75"/>
       <c r="AI103" s="70">
@@ -27586,7 +27585,7 @@
       </c>
       <c r="AU103" s="75"/>
       <c r="AV103" s="70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AW103" s="71"/>
       <c r="AX103" s="72"/>
@@ -27614,17 +27613,17 @@
       <c r="M104" s="46"/>
       <c r="N104" s="47"/>
       <c r="O104" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P104" s="137"/>
       <c r="Q104" s="137"/>
       <c r="R104" s="138"/>
       <c r="S104" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T104" s="75"/>
       <c r="U104" s="136" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V104" s="137"/>
       <c r="W104" s="137"/>
@@ -27642,7 +27641,7 @@
       </c>
       <c r="AF104" s="75"/>
       <c r="AG104" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH104" s="75"/>
       <c r="AI104" s="70">
@@ -27665,7 +27664,7 @@
       </c>
       <c r="AU104" s="75"/>
       <c r="AV104" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW104" s="71"/>
       <c r="AX104" s="72"/>
@@ -27693,17 +27692,17 @@
       <c r="M105" s="46"/>
       <c r="N105" s="47"/>
       <c r="O105" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P105" s="137"/>
       <c r="Q105" s="137"/>
       <c r="R105" s="138"/>
       <c r="S105" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T105" s="75"/>
       <c r="U105" s="136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V105" s="137"/>
       <c r="W105" s="137"/>
@@ -27721,7 +27720,7 @@
       </c>
       <c r="AF105" s="75"/>
       <c r="AG105" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH105" s="75"/>
       <c r="AI105" s="70">
@@ -27744,7 +27743,7 @@
       </c>
       <c r="AU105" s="75"/>
       <c r="AV105" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW105" s="71"/>
       <c r="AX105" s="72"/>
@@ -27772,17 +27771,17 @@
       <c r="M106" s="46"/>
       <c r="N106" s="47"/>
       <c r="O106" s="136" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P106" s="137"/>
       <c r="Q106" s="137"/>
       <c r="R106" s="138"/>
       <c r="S106" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T106" s="75"/>
       <c r="U106" s="136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V106" s="137"/>
       <c r="W106" s="137"/>
@@ -27800,7 +27799,7 @@
       </c>
       <c r="AF106" s="75"/>
       <c r="AG106" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH106" s="75"/>
       <c r="AI106" s="70">
@@ -27851,13 +27850,13 @@
       <c r="M107" s="46"/>
       <c r="N107" s="47"/>
       <c r="O107" s="136" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P107" s="137"/>
       <c r="Q107" s="137"/>
       <c r="R107" s="138"/>
       <c r="S107" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T107" s="75"/>
       <c r="U107" s="147" t="s">
@@ -27885,7 +27884,7 @@
       <c r="AK107" s="70"/>
       <c r="AL107" s="75"/>
       <c r="AM107" s="136" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN107" s="137"/>
       <c r="AO107" s="137"/>
@@ -27907,7 +27906,7 @@
         <v>99</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>215</v>
+        <v>381</v>
       </c>
       <c r="C108" s="46"/>
       <c r="D108" s="46"/>
@@ -27922,17 +27921,17 @@
       <c r="M108" s="46"/>
       <c r="N108" s="47"/>
       <c r="O108" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P108" s="137"/>
       <c r="Q108" s="137"/>
       <c r="R108" s="138"/>
       <c r="S108" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T108" s="75"/>
       <c r="U108" s="136" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V108" s="137"/>
       <c r="W108" s="137"/>
@@ -27949,9 +27948,13 @@
         <v>29</v>
       </c>
       <c r="AF108" s="75"/>
-      <c r="AG108" s="70"/>
+      <c r="AG108" s="70" t="s">
+        <v>382</v>
+      </c>
       <c r="AH108" s="75"/>
-      <c r="AI108" s="70"/>
+      <c r="AI108" s="70">
+        <v>255</v>
+      </c>
       <c r="AJ108" s="75"/>
       <c r="AK108" s="70" t="s">
         <v>30</v>
@@ -27964,9 +27967,13 @@
       <c r="AQ108" s="68"/>
       <c r="AR108" s="68"/>
       <c r="AS108" s="69"/>
-      <c r="AT108" s="70"/>
-      <c r="AU108" s="71"/>
-      <c r="AV108" s="70"/>
+      <c r="AT108" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU108" s="75"/>
+      <c r="AV108" s="70" t="s">
+        <v>383</v>
+      </c>
       <c r="AW108" s="71"/>
       <c r="AX108" s="72"/>
       <c r="AY108" s="73"/>
@@ -27978,7 +27985,7 @@
         <v>100</v>
       </c>
       <c r="B109" s="55" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C109" s="56"/>
       <c r="D109" s="56"/>
@@ -27993,17 +28000,17 @@
       <c r="M109" s="56"/>
       <c r="N109" s="57"/>
       <c r="O109" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P109" s="137"/>
       <c r="Q109" s="137"/>
       <c r="R109" s="138"/>
       <c r="S109" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T109" s="75"/>
       <c r="U109" s="136" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="V109" s="137"/>
       <c r="W109" s="137"/>
@@ -28021,7 +28028,7 @@
       </c>
       <c r="AF109" s="75"/>
       <c r="AG109" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH109" s="75"/>
       <c r="AI109" s="70">
@@ -28044,7 +28051,7 @@
       </c>
       <c r="AU109" s="75"/>
       <c r="AV109" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW109" s="71"/>
       <c r="AX109" s="72"/>
@@ -28057,7 +28064,7 @@
         <v>101</v>
       </c>
       <c r="B110" s="55" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C110" s="56"/>
       <c r="D110" s="56"/>
@@ -28072,17 +28079,17 @@
       <c r="M110" s="56"/>
       <c r="N110" s="57"/>
       <c r="O110" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P110" s="137"/>
       <c r="Q110" s="137"/>
       <c r="R110" s="138"/>
       <c r="S110" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T110" s="75"/>
       <c r="U110" s="136" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="V110" s="137"/>
       <c r="W110" s="137"/>
@@ -28100,7 +28107,7 @@
       </c>
       <c r="AF110" s="75"/>
       <c r="AG110" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH110" s="75"/>
       <c r="AI110" s="70">
@@ -28123,7 +28130,7 @@
       </c>
       <c r="AU110" s="75"/>
       <c r="AV110" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW110" s="71"/>
       <c r="AX110" s="72"/>
@@ -28136,7 +28143,7 @@
         <v>102</v>
       </c>
       <c r="B111" s="55" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C111" s="56"/>
       <c r="D111" s="56"/>
@@ -28151,17 +28158,17 @@
       <c r="M111" s="56"/>
       <c r="N111" s="57"/>
       <c r="O111" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P111" s="137"/>
       <c r="Q111" s="137"/>
       <c r="R111" s="138"/>
       <c r="S111" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T111" s="75"/>
       <c r="U111" s="136" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="V111" s="137"/>
       <c r="W111" s="137"/>
@@ -28179,7 +28186,7 @@
       </c>
       <c r="AF111" s="75"/>
       <c r="AG111" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH111" s="75"/>
       <c r="AI111" s="70">
@@ -28202,7 +28209,7 @@
       </c>
       <c r="AU111" s="75"/>
       <c r="AV111" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW111" s="71"/>
       <c r="AX111" s="72"/>
@@ -28215,7 +28222,7 @@
         <v>103</v>
       </c>
       <c r="B112" s="55" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C112" s="56"/>
       <c r="D112" s="56"/>
@@ -28230,17 +28237,17 @@
       <c r="M112" s="56"/>
       <c r="N112" s="57"/>
       <c r="O112" s="136" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P112" s="137"/>
       <c r="Q112" s="137"/>
       <c r="R112" s="138"/>
       <c r="S112" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T112" s="75"/>
       <c r="U112" s="136" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="V112" s="137"/>
       <c r="W112" s="137"/>
@@ -28258,7 +28265,7 @@
       </c>
       <c r="AF112" s="75"/>
       <c r="AG112" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH112" s="75"/>
       <c r="AI112" s="70">
@@ -28294,7 +28301,7 @@
         <v>104</v>
       </c>
       <c r="B113" s="55" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C113" s="56"/>
       <c r="D113" s="56"/>
@@ -28309,17 +28316,17 @@
       <c r="M113" s="56"/>
       <c r="N113" s="57"/>
       <c r="O113" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P113" s="137"/>
       <c r="Q113" s="137"/>
       <c r="R113" s="138"/>
       <c r="S113" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T113" s="75"/>
       <c r="U113" s="136" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="V113" s="137"/>
       <c r="W113" s="137"/>
@@ -28337,7 +28344,7 @@
       </c>
       <c r="AF113" s="75"/>
       <c r="AG113" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH113" s="75"/>
       <c r="AI113" s="70">
@@ -28360,7 +28367,7 @@
       </c>
       <c r="AU113" s="75"/>
       <c r="AV113" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW113" s="71"/>
       <c r="AX113" s="72"/>
@@ -28373,7 +28380,7 @@
         <v>105</v>
       </c>
       <c r="B114" s="55" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C114" s="56"/>
       <c r="D114" s="56"/>
@@ -28388,17 +28395,17 @@
       <c r="M114" s="56"/>
       <c r="N114" s="57"/>
       <c r="O114" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P114" s="137"/>
       <c r="Q114" s="137"/>
       <c r="R114" s="138"/>
       <c r="S114" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T114" s="75"/>
       <c r="U114" s="136" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="V114" s="137"/>
       <c r="W114" s="137"/>
@@ -28416,7 +28423,7 @@
       </c>
       <c r="AF114" s="75"/>
       <c r="AG114" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH114" s="75"/>
       <c r="AI114" s="70">
@@ -28439,7 +28446,7 @@
       </c>
       <c r="AU114" s="75"/>
       <c r="AV114" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW114" s="71"/>
       <c r="AX114" s="72"/>
@@ -28452,7 +28459,7 @@
         <v>106</v>
       </c>
       <c r="B115" s="55" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C115" s="56"/>
       <c r="D115" s="56"/>
@@ -28467,17 +28474,17 @@
       <c r="M115" s="56"/>
       <c r="N115" s="57"/>
       <c r="O115" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P115" s="137"/>
       <c r="Q115" s="137"/>
       <c r="R115" s="138"/>
       <c r="S115" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T115" s="75"/>
       <c r="U115" s="136" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="V115" s="137"/>
       <c r="W115" s="137"/>
@@ -28495,7 +28502,7 @@
       </c>
       <c r="AF115" s="75"/>
       <c r="AG115" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH115" s="75"/>
       <c r="AI115" s="70">
@@ -28518,7 +28525,7 @@
       </c>
       <c r="AU115" s="75"/>
       <c r="AV115" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW115" s="71"/>
       <c r="AX115" s="72"/>
@@ -28531,7 +28538,7 @@
         <v>107</v>
       </c>
       <c r="B116" s="55" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C116" s="56"/>
       <c r="D116" s="56"/>
@@ -28546,17 +28553,17 @@
       <c r="M116" s="56"/>
       <c r="N116" s="57"/>
       <c r="O116" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P116" s="137"/>
       <c r="Q116" s="137"/>
       <c r="R116" s="138"/>
       <c r="S116" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T116" s="75"/>
       <c r="U116" s="136" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="V116" s="137"/>
       <c r="W116" s="137"/>
@@ -28574,7 +28581,7 @@
       </c>
       <c r="AF116" s="75"/>
       <c r="AG116" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH116" s="75"/>
       <c r="AI116" s="70">
@@ -28597,7 +28604,7 @@
       </c>
       <c r="AU116" s="75"/>
       <c r="AV116" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW116" s="71"/>
       <c r="AX116" s="72"/>
@@ -28610,7 +28617,7 @@
         <v>108</v>
       </c>
       <c r="B117" s="55" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C117" s="56"/>
       <c r="D117" s="56"/>
@@ -28625,17 +28632,17 @@
       <c r="M117" s="56"/>
       <c r="N117" s="57"/>
       <c r="O117" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P117" s="137"/>
       <c r="Q117" s="137"/>
       <c r="R117" s="138"/>
       <c r="S117" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T117" s="75"/>
       <c r="U117" s="136" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="V117" s="137"/>
       <c r="W117" s="137"/>
@@ -28653,7 +28660,7 @@
       </c>
       <c r="AF117" s="75"/>
       <c r="AG117" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH117" s="75"/>
       <c r="AI117" s="70">
@@ -28676,7 +28683,7 @@
       </c>
       <c r="AU117" s="75"/>
       <c r="AV117" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW117" s="71"/>
       <c r="AX117" s="72"/>
@@ -28689,7 +28696,7 @@
         <v>109</v>
       </c>
       <c r="B118" s="55" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C118" s="56"/>
       <c r="D118" s="56"/>
@@ -28704,17 +28711,17 @@
       <c r="M118" s="56"/>
       <c r="N118" s="57"/>
       <c r="O118" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P118" s="137"/>
       <c r="Q118" s="137"/>
       <c r="R118" s="138"/>
       <c r="S118" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T118" s="75"/>
       <c r="U118" s="136" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="V118" s="137"/>
       <c r="W118" s="137"/>
@@ -28732,7 +28739,7 @@
       </c>
       <c r="AF118" s="75"/>
       <c r="AG118" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH118" s="75"/>
       <c r="AI118" s="70">
@@ -28755,7 +28762,7 @@
       </c>
       <c r="AU118" s="75"/>
       <c r="AV118" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW118" s="71"/>
       <c r="AX118" s="72"/>
@@ -28768,7 +28775,7 @@
         <v>110</v>
       </c>
       <c r="B119" s="55" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C119" s="56"/>
       <c r="D119" s="56"/>
@@ -28783,17 +28790,17 @@
       <c r="M119" s="56"/>
       <c r="N119" s="57"/>
       <c r="O119" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P119" s="137"/>
       <c r="Q119" s="137"/>
       <c r="R119" s="138"/>
       <c r="S119" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T119" s="75"/>
       <c r="U119" s="136" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="V119" s="137"/>
       <c r="W119" s="137"/>
@@ -28811,7 +28818,7 @@
       </c>
       <c r="AF119" s="75"/>
       <c r="AG119" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH119" s="75"/>
       <c r="AI119" s="70">
@@ -28834,7 +28841,7 @@
       </c>
       <c r="AU119" s="75"/>
       <c r="AV119" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW119" s="71"/>
       <c r="AX119" s="72"/>
@@ -28847,7 +28854,7 @@
         <v>111</v>
       </c>
       <c r="B120" s="55" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C120" s="56"/>
       <c r="D120" s="56"/>
@@ -28862,17 +28869,17 @@
       <c r="M120" s="56"/>
       <c r="N120" s="57"/>
       <c r="O120" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P120" s="137"/>
       <c r="Q120" s="137"/>
       <c r="R120" s="138"/>
       <c r="S120" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T120" s="75"/>
       <c r="U120" s="136" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="V120" s="137"/>
       <c r="W120" s="137"/>
@@ -28890,7 +28897,7 @@
       </c>
       <c r="AF120" s="75"/>
       <c r="AG120" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH120" s="75"/>
       <c r="AI120" s="70">
@@ -28913,7 +28920,7 @@
       </c>
       <c r="AU120" s="75"/>
       <c r="AV120" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW120" s="71"/>
       <c r="AX120" s="72"/>
@@ -28926,7 +28933,7 @@
         <v>112</v>
       </c>
       <c r="B121" s="55" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C121" s="56"/>
       <c r="D121" s="56"/>
@@ -28941,17 +28948,17 @@
       <c r="M121" s="56"/>
       <c r="N121" s="57"/>
       <c r="O121" s="136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P121" s="137"/>
       <c r="Q121" s="137"/>
       <c r="R121" s="138"/>
       <c r="S121" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T121" s="75"/>
       <c r="U121" s="136" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="V121" s="137"/>
       <c r="W121" s="137"/>
@@ -28969,7 +28976,7 @@
       </c>
       <c r="AF121" s="75"/>
       <c r="AG121" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH121" s="75"/>
       <c r="AI121" s="70">
@@ -28992,7 +28999,7 @@
       </c>
       <c r="AU121" s="75"/>
       <c r="AV121" s="70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AW121" s="71"/>
       <c r="AX121" s="72"/>
@@ -29005,7 +29012,7 @@
         <v>113</v>
       </c>
       <c r="B122" s="58" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C122" s="59"/>
       <c r="D122" s="59"/>
@@ -29026,11 +29033,11 @@
       <c r="Q122" s="137"/>
       <c r="R122" s="138"/>
       <c r="S122" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T122" s="75"/>
       <c r="U122" s="136" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="V122" s="137"/>
       <c r="W122" s="137"/>
@@ -29048,7 +29055,7 @@
       </c>
       <c r="AF122" s="75"/>
       <c r="AG122" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH122" s="75"/>
       <c r="AI122" s="70">
@@ -29084,7 +29091,7 @@
         <v>114</v>
       </c>
       <c r="B123" s="55" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C123" s="56"/>
       <c r="D123" s="56"/>
@@ -29099,17 +29106,17 @@
       <c r="M123" s="56"/>
       <c r="N123" s="57"/>
       <c r="O123" s="136" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P123" s="137"/>
       <c r="Q123" s="137"/>
       <c r="R123" s="138"/>
       <c r="S123" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T123" s="75"/>
       <c r="U123" s="136" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="V123" s="137"/>
       <c r="W123" s="137"/>
@@ -29127,7 +29134,7 @@
       </c>
       <c r="AF123" s="75"/>
       <c r="AG123" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH123" s="75"/>
       <c r="AI123" s="70">
@@ -29163,7 +29170,7 @@
         <v>115</v>
       </c>
       <c r="B124" s="58" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C124" s="59"/>
       <c r="D124" s="59"/>
@@ -29184,11 +29191,11 @@
       <c r="Q124" s="137"/>
       <c r="R124" s="138"/>
       <c r="S124" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T124" s="75"/>
       <c r="U124" s="136" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="V124" s="137"/>
       <c r="W124" s="137"/>
@@ -29206,7 +29213,7 @@
       </c>
       <c r="AF124" s="75"/>
       <c r="AG124" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH124" s="75"/>
       <c r="AI124" s="70">
@@ -29242,7 +29249,7 @@
         <v>116</v>
       </c>
       <c r="B125" s="58" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C125" s="59"/>
       <c r="D125" s="59"/>
@@ -29263,11 +29270,11 @@
       <c r="Q125" s="137"/>
       <c r="R125" s="138"/>
       <c r="S125" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T125" s="75"/>
       <c r="U125" s="136" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="V125" s="137"/>
       <c r="W125" s="137"/>
@@ -29285,7 +29292,7 @@
       </c>
       <c r="AF125" s="75"/>
       <c r="AG125" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH125" s="75"/>
       <c r="AI125" s="70">
@@ -29321,7 +29328,7 @@
         <v>117</v>
       </c>
       <c r="B126" s="58" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C126" s="59"/>
       <c r="D126" s="59"/>
@@ -29342,11 +29349,11 @@
       <c r="Q126" s="137"/>
       <c r="R126" s="138"/>
       <c r="S126" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T126" s="75"/>
       <c r="U126" s="136" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="V126" s="137"/>
       <c r="W126" s="137"/>
@@ -29364,7 +29371,7 @@
       </c>
       <c r="AF126" s="75"/>
       <c r="AG126" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH126" s="75"/>
       <c r="AI126" s="70">
@@ -29400,7 +29407,7 @@
         <v>118</v>
       </c>
       <c r="B127" s="58" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C127" s="59"/>
       <c r="D127" s="59"/>
@@ -29421,11 +29428,11 @@
       <c r="Q127" s="137"/>
       <c r="R127" s="138"/>
       <c r="S127" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T127" s="75"/>
       <c r="U127" s="136" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="V127" s="137"/>
       <c r="W127" s="137"/>
@@ -29443,7 +29450,7 @@
       </c>
       <c r="AF127" s="75"/>
       <c r="AG127" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH127" s="75"/>
       <c r="AI127" s="70">
@@ -29479,7 +29486,7 @@
         <v>119</v>
       </c>
       <c r="B128" s="58" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C128" s="59"/>
       <c r="D128" s="59"/>
@@ -29500,11 +29507,11 @@
       <c r="Q128" s="137"/>
       <c r="R128" s="138"/>
       <c r="S128" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T128" s="75"/>
       <c r="U128" s="136" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="V128" s="137"/>
       <c r="W128" s="137"/>
@@ -29522,7 +29529,7 @@
       </c>
       <c r="AF128" s="75"/>
       <c r="AG128" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH128" s="75"/>
       <c r="AI128" s="70">
@@ -29558,7 +29565,7 @@
         <v>120</v>
       </c>
       <c r="B129" s="58" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C129" s="59"/>
       <c r="D129" s="59"/>
@@ -29579,11 +29586,11 @@
       <c r="Q129" s="137"/>
       <c r="R129" s="138"/>
       <c r="S129" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T129" s="75"/>
       <c r="U129" s="136" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="V129" s="137"/>
       <c r="W129" s="137"/>
@@ -29601,7 +29608,7 @@
       </c>
       <c r="AF129" s="75"/>
       <c r="AG129" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH129" s="75"/>
       <c r="AI129" s="70">
@@ -29637,7 +29644,7 @@
         <v>121</v>
       </c>
       <c r="B130" s="58" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C130" s="59"/>
       <c r="D130" s="59"/>
@@ -29658,11 +29665,11 @@
       <c r="Q130" s="137"/>
       <c r="R130" s="138"/>
       <c r="S130" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T130" s="75"/>
       <c r="U130" s="136" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="V130" s="137"/>
       <c r="W130" s="137"/>
@@ -29680,7 +29687,7 @@
       </c>
       <c r="AF130" s="75"/>
       <c r="AG130" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH130" s="75"/>
       <c r="AI130" s="70">
@@ -29716,7 +29723,7 @@
         <v>122</v>
       </c>
       <c r="B131" s="58" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C131" s="59"/>
       <c r="D131" s="59"/>
@@ -29737,11 +29744,11 @@
       <c r="Q131" s="137"/>
       <c r="R131" s="138"/>
       <c r="S131" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T131" s="75"/>
       <c r="U131" s="136" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="V131" s="137"/>
       <c r="W131" s="137"/>
@@ -29759,7 +29766,7 @@
       </c>
       <c r="AF131" s="75"/>
       <c r="AG131" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH131" s="75"/>
       <c r="AI131" s="70">
@@ -29795,7 +29802,7 @@
         <v>123</v>
       </c>
       <c r="B132" s="58" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C132" s="59"/>
       <c r="D132" s="59"/>
@@ -29816,11 +29823,11 @@
       <c r="Q132" s="137"/>
       <c r="R132" s="138"/>
       <c r="S132" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T132" s="75"/>
       <c r="U132" s="136" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="V132" s="137"/>
       <c r="W132" s="137"/>
@@ -29838,7 +29845,7 @@
       </c>
       <c r="AF132" s="75"/>
       <c r="AG132" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH132" s="75"/>
       <c r="AI132" s="70">
@@ -29874,7 +29881,7 @@
         <v>124</v>
       </c>
       <c r="B133" s="58" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C133" s="59"/>
       <c r="D133" s="59"/>
@@ -29895,11 +29902,11 @@
       <c r="Q133" s="137"/>
       <c r="R133" s="138"/>
       <c r="S133" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T133" s="75"/>
       <c r="U133" s="136" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="V133" s="137"/>
       <c r="W133" s="137"/>
@@ -29917,7 +29924,7 @@
       </c>
       <c r="AF133" s="75"/>
       <c r="AG133" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH133" s="75"/>
       <c r="AI133" s="70">
@@ -29953,7 +29960,7 @@
         <v>125</v>
       </c>
       <c r="B134" s="58" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C134" s="59"/>
       <c r="D134" s="59"/>
@@ -29974,11 +29981,11 @@
       <c r="Q134" s="137"/>
       <c r="R134" s="138"/>
       <c r="S134" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T134" s="75"/>
       <c r="U134" s="136" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="V134" s="137"/>
       <c r="W134" s="137"/>
@@ -29996,7 +30003,7 @@
       </c>
       <c r="AF134" s="75"/>
       <c r="AG134" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH134" s="75"/>
       <c r="AI134" s="70">
@@ -30047,13 +30054,13 @@
       <c r="M135" s="56"/>
       <c r="N135" s="57"/>
       <c r="O135" s="136" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P135" s="137"/>
       <c r="Q135" s="137"/>
       <c r="R135" s="138"/>
       <c r="S135" s="70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T135" s="75"/>
       <c r="U135" s="147" t="s">
@@ -30081,7 +30088,7 @@
       <c r="AK135" s="70"/>
       <c r="AL135" s="75"/>
       <c r="AM135" s="136" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN135" s="137"/>
       <c r="AO135" s="137"/>
@@ -30215,7 +30222,7 @@
       </c>
       <c r="AL137" s="75"/>
       <c r="AM137" s="136" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN137" s="137"/>
       <c r="AO137" s="137"/>
@@ -30241,7 +30248,7 @@
         <v>129</v>
       </c>
       <c r="B138" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C138" s="46"/>
       <c r="D138" s="46"/>
@@ -30296,7 +30303,7 @@
       </c>
       <c r="AL138" s="75"/>
       <c r="AM138" s="136" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN138" s="137"/>
       <c r="AO138" s="137"/>
@@ -30377,7 +30384,7 @@
       </c>
       <c r="AL139" s="75"/>
       <c r="AM139" s="136" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN139" s="137"/>
       <c r="AO139" s="137"/>
@@ -30458,7 +30465,7 @@
       </c>
       <c r="AL140" s="75"/>
       <c r="AM140" s="136" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN140" s="137"/>
       <c r="AO140" s="137"/>
@@ -30852,21 +30859,6 @@
     <mergeCell ref="AT79:AU79"/>
     <mergeCell ref="AV79:AW79"/>
     <mergeCell ref="AX79:AZ79"/>
-    <mergeCell ref="O73:R73"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="U73:Y73"/>
-    <mergeCell ref="Z73:AD73"/>
-    <mergeCell ref="AE73:AF73"/>
-    <mergeCell ref="AG73:AH73"/>
-    <mergeCell ref="AI73:AJ73"/>
-    <mergeCell ref="AK73:AL73"/>
-    <mergeCell ref="AM73:AS73"/>
-    <mergeCell ref="AT73:AU73"/>
-    <mergeCell ref="AV73:AW73"/>
-    <mergeCell ref="AX73:AZ73"/>
-    <mergeCell ref="O74:R74"/>
-    <mergeCell ref="S74:T74"/>
-    <mergeCell ref="U74:Y74"/>
     <mergeCell ref="Z74:AD74"/>
     <mergeCell ref="AG78:AH78"/>
     <mergeCell ref="AI78:AJ78"/>
@@ -30876,6 +30868,14 @@
     <mergeCell ref="U76:Y76"/>
     <mergeCell ref="Z76:AD76"/>
     <mergeCell ref="AE76:AF76"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AK76:AL76"/>
+    <mergeCell ref="AM76:AS76"/>
+    <mergeCell ref="O75:R75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="U75:Y75"/>
+    <mergeCell ref="Z75:AD75"/>
     <mergeCell ref="O56:R56"/>
     <mergeCell ref="S56:T56"/>
     <mergeCell ref="U56:Y56"/>
@@ -30985,15 +30985,6 @@
     <mergeCell ref="AG98:AH98"/>
     <mergeCell ref="AI98:AJ98"/>
     <mergeCell ref="AK98:AL98"/>
-    <mergeCell ref="O99:R99"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="U99:Y99"/>
-    <mergeCell ref="Z99:AD99"/>
-    <mergeCell ref="AE99:AF99"/>
-    <mergeCell ref="AG99:AH99"/>
-    <mergeCell ref="AI99:AJ99"/>
-    <mergeCell ref="AK99:AL99"/>
-    <mergeCell ref="AM99:AS99"/>
     <mergeCell ref="AT99:AU99"/>
     <mergeCell ref="AV99:AW99"/>
     <mergeCell ref="AX99:AZ99"/>
@@ -31017,6 +31008,11 @@
     <mergeCell ref="AT109:AU109"/>
     <mergeCell ref="AV109:AW109"/>
     <mergeCell ref="AX109:AZ109"/>
+    <mergeCell ref="AT102:AU102"/>
+    <mergeCell ref="AV102:AW102"/>
+    <mergeCell ref="AX102:AZ102"/>
+    <mergeCell ref="O101:R101"/>
+    <mergeCell ref="S101:T101"/>
     <mergeCell ref="U101:Y101"/>
     <mergeCell ref="Z101:AD101"/>
     <mergeCell ref="AE101:AF101"/>
@@ -31038,13 +31034,12 @@
     <mergeCell ref="AT100:AU100"/>
     <mergeCell ref="AV100:AW100"/>
     <mergeCell ref="AX100:AZ100"/>
-    <mergeCell ref="AV103:AW103"/>
-    <mergeCell ref="AX103:AZ103"/>
-    <mergeCell ref="O102:R102"/>
-    <mergeCell ref="S102:T102"/>
-    <mergeCell ref="U102:Y102"/>
-    <mergeCell ref="Z102:AD102"/>
-    <mergeCell ref="AE102:AF102"/>
+    <mergeCell ref="O99:R99"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="U99:Y99"/>
+    <mergeCell ref="Z99:AD99"/>
+    <mergeCell ref="AE99:AF99"/>
+    <mergeCell ref="AG99:AH99"/>
     <mergeCell ref="AG102:AH102"/>
     <mergeCell ref="AI102:AJ102"/>
     <mergeCell ref="AK102:AL102"/>
@@ -31065,11 +31060,9 @@
     <mergeCell ref="AI100:AJ100"/>
     <mergeCell ref="AK100:AL100"/>
     <mergeCell ref="AM100:AS100"/>
-    <mergeCell ref="AT102:AU102"/>
-    <mergeCell ref="AV102:AW102"/>
-    <mergeCell ref="AX102:AZ102"/>
-    <mergeCell ref="O101:R101"/>
-    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="AI99:AJ99"/>
+    <mergeCell ref="AK99:AL99"/>
+    <mergeCell ref="AM99:AS99"/>
     <mergeCell ref="AX140:AZ140"/>
     <mergeCell ref="AG139:AH139"/>
     <mergeCell ref="AI139:AJ139"/>
@@ -31372,8 +31365,6 @@
     <mergeCell ref="AI31:AJ31"/>
     <mergeCell ref="AM33:AS33"/>
     <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AS20"/>
     <mergeCell ref="AK16:AL16"/>
     <mergeCell ref="AM16:AS16"/>
     <mergeCell ref="AK18:AL18"/>
@@ -31404,8 +31395,6 @@
     <mergeCell ref="Z24:AD24"/>
     <mergeCell ref="U25:Y25"/>
     <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S19:T19"/>
     <mergeCell ref="U17:Y17"/>
     <mergeCell ref="Z19:AD19"/>
     <mergeCell ref="Z20:AD20"/>
@@ -31436,6 +31425,8 @@
     <mergeCell ref="AG21:AH21"/>
     <mergeCell ref="U19:Y19"/>
     <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AS20"/>
     <mergeCell ref="AG24:AH24"/>
     <mergeCell ref="S23:T23"/>
     <mergeCell ref="Z23:AD23"/>
@@ -31466,6 +31457,8 @@
     <mergeCell ref="U18:Y18"/>
     <mergeCell ref="O15:R15"/>
     <mergeCell ref="S15:T15"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S19:T19"/>
     <mergeCell ref="AE12:AF12"/>
     <mergeCell ref="AE14:AF14"/>
     <mergeCell ref="AG14:AH14"/>
@@ -31818,13 +31811,6 @@
     <mergeCell ref="AM92:AS92"/>
     <mergeCell ref="AT92:AU92"/>
     <mergeCell ref="AV92:AW92"/>
-    <mergeCell ref="AI104:AJ104"/>
-    <mergeCell ref="AK104:AL104"/>
-    <mergeCell ref="AM104:AS104"/>
-    <mergeCell ref="AT104:AU104"/>
-    <mergeCell ref="AV104:AW104"/>
-    <mergeCell ref="AX104:AZ104"/>
-    <mergeCell ref="S94:T94"/>
     <mergeCell ref="S104:T104"/>
     <mergeCell ref="AE94:AF94"/>
     <mergeCell ref="AE104:AF104"/>
@@ -31850,6 +31836,13 @@
     <mergeCell ref="AK103:AL103"/>
     <mergeCell ref="AM103:AS103"/>
     <mergeCell ref="AT103:AU103"/>
+    <mergeCell ref="AV103:AW103"/>
+    <mergeCell ref="AX103:AZ103"/>
+    <mergeCell ref="O102:R102"/>
+    <mergeCell ref="S102:T102"/>
+    <mergeCell ref="U102:Y102"/>
+    <mergeCell ref="Z102:AD102"/>
+    <mergeCell ref="AE102:AF102"/>
     <mergeCell ref="AM53:AS53"/>
     <mergeCell ref="AT53:AU53"/>
     <mergeCell ref="AV53:AW53"/>
@@ -32078,10 +32071,6 @@
     <mergeCell ref="AI75:AJ75"/>
     <mergeCell ref="AK75:AL75"/>
     <mergeCell ref="AM75:AS75"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AK76:AL76"/>
-    <mergeCell ref="AM76:AS76"/>
     <mergeCell ref="AT69:AU69"/>
     <mergeCell ref="AV69:AW69"/>
     <mergeCell ref="AX69:AZ69"/>
@@ -32099,10 +32088,21 @@
     <mergeCell ref="AG72:AH72"/>
     <mergeCell ref="AE74:AF74"/>
     <mergeCell ref="AG74:AH74"/>
-    <mergeCell ref="O75:R75"/>
-    <mergeCell ref="S75:T75"/>
-    <mergeCell ref="U75:Y75"/>
-    <mergeCell ref="Z75:AD75"/>
+    <mergeCell ref="O73:R73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="U73:Y73"/>
+    <mergeCell ref="Z73:AD73"/>
+    <mergeCell ref="AE73:AF73"/>
+    <mergeCell ref="AG73:AH73"/>
+    <mergeCell ref="AI73:AJ73"/>
+    <mergeCell ref="AK73:AL73"/>
+    <mergeCell ref="AM73:AS73"/>
+    <mergeCell ref="AT73:AU73"/>
+    <mergeCell ref="AV73:AW73"/>
+    <mergeCell ref="AX73:AZ73"/>
+    <mergeCell ref="O74:R74"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="U74:Y74"/>
     <mergeCell ref="AE75:AF75"/>
     <mergeCell ref="AG75:AH75"/>
     <mergeCell ref="AT75:AU75"/>
@@ -32128,6 +32128,13 @@
     <mergeCell ref="AT124:AU124"/>
     <mergeCell ref="AV124:AW124"/>
     <mergeCell ref="AX124:AZ124"/>
+    <mergeCell ref="AI104:AJ104"/>
+    <mergeCell ref="AK104:AL104"/>
+    <mergeCell ref="AM104:AS104"/>
+    <mergeCell ref="AT104:AU104"/>
+    <mergeCell ref="AV104:AW104"/>
+    <mergeCell ref="AX104:AZ104"/>
+    <mergeCell ref="S94:T94"/>
     <mergeCell ref="O125:R125"/>
     <mergeCell ref="S125:T125"/>
     <mergeCell ref="U125:Y125"/>
